--- a/medicine/Enfance/Anita_Ganeri/Anita_Ganeri.xlsx
+++ b/medicine/Enfance/Anita_Ganeri/Anita_Ganeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anita Ganeri (née en 1961) est une auteure indienne de la série primée Horrible Géographie[1] et de nombreux autres livres documentaires pour enfants[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anita Ganeri (née en 1961) est une auteure indienne de la série primée Horrible Géographie et de nombreux autres livres documentaires pour enfants. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Petite enfance et éducation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ganeri est née à Calcutta, en Inde ; sa famille émigre en Angleterre alors qu'elle est bébé. Elle étudie à Stamford High School et obtient un diplôme de l'Université de Cambridge en français, allemand et hindi[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ganeri est née à Calcutta, en Inde ; sa famille émigre en Angleterre alors qu'elle est bébé. Elle étudie à Stamford High School et obtient un diplôme de l'Université de Cambridge en français, allemand et hindi.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ganeri travaille dans l'édition pendant plusieurs années - d'abord comme gestionnaire des droits étrangers pour l'éditeur Walker, ensuite chez l'éditeur Usborne, avant de devenir écrivain indépendant. Son premier livre est édité par Ladybird Books et s'intitule How it work. Elle écrit plus de 600 livres documentaires à un rythme de 15 à 20 par an. Ses livres couvrent de nombreux sujets tels que la géographie, la mythologie, la religion, l'histoire, les animaux, le climat, les sciences.
 Son travail pour la série Horrible Géographie lui vaut de devenir membre de la Royal Geographical Society.
@@ -574,9 +590,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ganeri réside à Ilkley, Yorkshire de l'Ouest, avec son mari, Chris Oxlade qui est auteur pour enfants[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ganeri réside à Ilkley, Yorkshire de l'Ouest, avec son mari, Chris Oxlade qui est auteur pour enfants.
 </t>
         </is>
       </c>
@@ -606,6 +624,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
